--- a/biology/Zoologie/Botruanthus_mexicanus/Botruanthus_mexicanus.xlsx
+++ b/biology/Zoologie/Botruanthus_mexicanus/Botruanthus_mexicanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botruanthus mexicanus est une espèce de cnidaires de la famille des Botrucnidiferidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botruanthus mexicanus est une espèce de cnidaires de la famille des Botrucnidiferidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Botruanthus mexicanus a été décrite en 2016 par Sérgio N. Stampar (d), Ricardo González-Muñoz (d) et André Carrara Morandini (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Botruanthus mexicanus a été décrite en 2016 par Sérgio N. Stampar (d), Ricardo González-Muñoz (d) et André Carrara Morandini (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, mexicanus, fait référence au Mexique où l'espèce a été découverte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, mexicanus, fait référence au Mexique où l'espèce a été découverte.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sérgio N. Stampar, Ricardo González-Muñoz et André C. Morandini, « Botruanthus mexicanus (Cnidaria: Ceriantharia), a new species of tube-dwelling anemone from the Gulf of Mexico », Marine Biodiversity, Springer Science+Business Media, vol. 47, no 1,‎ 6 juin 2016, p. 113-118 (ISSN 1867-1616 et 1867-1624, DOI 10.1007/S12526-016-0521-2, lire en ligne)</t>
         </is>
